--- a/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -719,7 +719,9 @@
       <x:c r="E3" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="6" t="s"/>
+      <x:c r="F3" s="6" t="n">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="B4" s="5" t="s">

--- a/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -62,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="3">
+  <x:numFmts count="4">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0.00"/>
-    <x:numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,0.00"/>
+    <x:numFmt numFmtId="166" formatCode="#,0.0"/>
+    <x:numFmt numFmtId="167" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="5">
     <x:font>
@@ -328,10 +329,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -380,11 +381,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -683,13 +684,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K14"/>
+  <x:dimension ref="A1:F14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:11" customFormat="1" ht="30" customHeight="1">
+    <x:row r="2" spans="1:6" customFormat="1" ht="30" customHeight="1">
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -706,7 +707,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11">
+    <x:row r="3" spans="1:6">
       <x:c r="B3" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -723,7 +724,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:6">
       <x:c r="B4" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -736,7 +737,7 @@
       <x:c r="E4" s="7" t="s"/>
       <x:c r="F4" s="6" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:6">
       <x:c r="B5" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -747,7 +748,7 @@
       <x:c r="E5" s="7" t="s"/>
       <x:c r="F5" s="6" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:6">
       <x:c r="B6" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -760,7 +761,7 @@
       </x:c>
       <x:c r="F6" s="6" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:11">
+    <x:row r="7" spans="1:6">
       <x:c r="B7" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -775,7 +776,7 @@
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11" customFormat="1" ht="20" customHeight="1">
+    <x:row r="8" spans="1:6" customFormat="1" ht="20" customHeight="1">
       <x:c r="B8" s="10" t="s">
         <x:v>13</x:v>
       </x:c>

--- a/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -707,7 +707,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:6" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="B3" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
